--- a/EdisonLogs/operaSoccer.xlsx
+++ b/EdisonLogs/operaSoccer.xlsx
@@ -16,18 +16,283 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>newsID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
   <si>
     <t>NewsHeadline</t>
+  </si>
+  <si>
+    <t>Coronavirus: Players want at least four weeks of training before return – AIC</t>
+  </si>
+  <si>
+    <t>Coronavirus: Nationals to receive World Series rings in virtual ceremony</t>
+  </si>
+  <si>
+    <t>newsId</t>
+  </si>
+  <si>
+    <t>Neymar will stay at PSG despite Barcelona interest, says former agent</t>
+  </si>
+  <si>
+    <t>1099587</t>
+  </si>
+  <si>
+    <t>Sainz hopes Alonso makes Formula One return</t>
+  </si>
+  <si>
+    <t>1099588</t>
+  </si>
+  <si>
+    <t>On this day in sport: Barcelona´s maiden European Cup triumph and Del Piero´s Juve farewell</t>
+  </si>
+  <si>
+    <t>1099589</t>
+  </si>
+  <si>
+    <t>Rangers would prefer to hold second spring training at new stadium</t>
+  </si>
+  <si>
+    <t>1099590</t>
+  </si>
+  <si>
+    <t>Walters open to Inglis making Maroons comeback</t>
+  </si>
+  <si>
+    <t>1099591</t>
+  </si>
+  <si>
+    <t>Premier League links riled RB Leipzig forward Poulsen</t>
+  </si>
+  <si>
+    <t>1099592</t>
+  </si>
+  <si>
+    <t>Rumour Has It: PSG want Real Madrid target Haaland, Barcelona consider options</t>
+  </si>
+  <si>
+    <t>1099593</t>
+  </si>
+  <si>
+    <t>Ronaldo goes to the next level in the Champions League – Chiellini</t>
+  </si>
+  <si>
+    <t>1099387</t>
+  </si>
+  <si>
+    <t>Coronavirus: NFL facilities to partially reopen on Tuesday, pending local regulations</t>
+  </si>
+  <si>
+    <t>1099388</t>
+  </si>
+  <si>
+    <t>Coronavirus: Neymar working hard as star looks forward to return</t>
+  </si>
+  <si>
+    <t>1099389</t>
+  </si>
+  <si>
+    <t>Former England and Arsenal defender Sansom hospitalised</t>
+  </si>
+  <si>
+    <t>1099390</t>
+  </si>
+  <si>
+    <t>Guardiola one of the best managers ever – Man City´s Bernardo Silva</t>
+  </si>
+  <si>
+    <t>1099391</t>
+  </si>
+  <si>
+    <t>Getafe striker Molina denies wrongdoing after match-fixing report</t>
+  </si>
+  <si>
+    <t>1099392</t>
+  </si>
+  <si>
+    <t>Mbappe wants prolific Ben Yedder honoured in top scorer trophy debate</t>
+  </si>
+  <si>
+    <t>1099087</t>
+  </si>
+  <si>
+    <t>Saints release veteran guard Warford</t>
+  </si>
+  <si>
+    <t>1099088</t>
+  </si>
+  <si>
+    <t>Wenger hoping Arteta can restore Arsenal´s culture</t>
+  </si>
+  <si>
+    <t>1099089</t>
+  </si>
+  <si>
+    <t>Coronavirus: Eintracht Frankfurt warn fans to stay away from stadium – or team will lose points</t>
+  </si>
+  <si>
+    <t>1099090</t>
+  </si>
+  <si>
+    <t>Coronavirus: MLB reportedly shortens 2020 draft from 40 rounds to five</t>
+  </si>
+  <si>
+    <t>1099091</t>
+  </si>
+  <si>
+    <t>Panthers agree to four-year deal with number seven overall pick Brown</t>
+  </si>
+  <si>
+    <t>1099092</t>
+  </si>
+  <si>
+    <t>Mbappe is capable of marking an era at Real Madrid – Emery</t>
+  </si>
+  <si>
+    <t>1099093</t>
+  </si>
+  <si>
+    <t>Barcelona want Neymar again, says former assistant Moreno</t>
+  </si>
+  <si>
+    <t>1099094</t>
+  </si>
+  <si>
+    <t>I threw my phone – Daniel James reveals anger at missing out on Leeds move</t>
+  </si>
+  <si>
+    <t>1099095</t>
+  </si>
+  <si>
+    <t>Coronavirus: NSW health minister tells NRL to ´stick to the deal´ over flu vaccine</t>
+  </si>
+  <si>
+    <t>1099096</t>
+  </si>
+  <si>
+    <t>On this day in sport: Man Utd appoint Moyes, Kerry packs a punch</t>
+  </si>
+  <si>
+    <t>1099097</t>
+  </si>
+  <si>
+    <t>Rumour Has It: Liverpool in pole position to sign Koulibaly</t>
+  </si>
+  <si>
+    <t>1099098</t>
+  </si>
+  <si>
+    <t>Diego Simeone has a job for life at Atletico, says Unai Emery</t>
+  </si>
+  <si>
+    <t>1099099</t>
+  </si>
+  <si>
+    <t>Coronavirus: Brady questions whether Premier League strugglers can afford to leave out stars</t>
+  </si>
+  <si>
+    <t>1099100</t>
+  </si>
+  <si>
+    <t>Coronavirus: Atletico Madrid reveal Renan Lodi at home as players return to training</t>
+  </si>
+  <si>
+    <t>1099101</t>
+  </si>
+  <si>
+    <t>Coronavirus: Ricciardo expects ´chaos´ when F1 returns</t>
+  </si>
+  <si>
+    <t>1099102</t>
+  </si>
+  <si>
+    <t>Chiellini on the attack: Balotelli deserved a slap, Melo ´a rotten apple´</t>
+  </si>
+  <si>
+    <t>1099103</t>
+  </si>
+  <si>
+    <t>Coronavirus: Joseph Parker hoping August fight in ´New Zealand bubble´ gets approval</t>
+  </si>
+  <si>
+    <t>1099104</t>
+  </si>
+  <si>
+    <t>´It´s fake news!´ - Napoli dismiss Getafe claims, deny chasing Cucurella</t>
+  </si>
+  <si>
+    <t>1099105</t>
+  </si>
+  <si>
+    <t>Ricciardo retains F1 world title belief despite Renault frustration</t>
+  </si>
+  <si>
+    <t>1099106</t>
+  </si>
+  <si>
+    <t>´Great entertainer´ Stokes clearly deserving of world´s best honour, says Ford</t>
+  </si>
+  <si>
+    <t>1099107</t>
+  </si>
+  <si>
+    <t>Coronavirus: Vuelta a Espana cancels plans for stages in Portugal</t>
+  </si>
+  <si>
+    <t>1099108</t>
+  </si>
+  <si>
+    <t>Coronavirus: To B or not to B - that is the big Premier League and EFL question</t>
+  </si>
+  <si>
+    <t>1099109</t>
+  </si>
+  <si>
+    <t>Umtiti injured in second session of Barcelona training return</t>
+  </si>
+  <si>
+    <t>1099110</t>
+  </si>
+  <si>
+    <t>Cannavaro sympathises with Van Dijk over Messi´s Ballon d´Or triumph</t>
+  </si>
+  <si>
+    <t>1099111</t>
+  </si>
+  <si>
+    <t>Ulsan hit four to set early K League standard</t>
+  </si>
+  <si>
+    <t>1099112</t>
+  </si>
+  <si>
+    <t>Pogba and Fernandes can be ´amazing´ pairing with ´compromise´, tips Neville</t>
+  </si>
+  <si>
+    <t>1099113</t>
+  </si>
+  <si>
+    <t>Coronavirus: Revitalised Hamilton reveals problem with closed-door F1 races</t>
+  </si>
+  <si>
+    <t>1099114</t>
+  </si>
+  <si>
+    <t>Tyson Fury teases ´massive news´ is on the way in Instagram video</t>
+  </si>
+  <si>
+    <t>1099115</t>
+  </si>
+  <si>
+    <t>It´s not normal! Poyet bemused by timing of Ziyech deal after Chelsea sign nobody in January</t>
+  </si>
+  <si>
+    <t>1099116</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,79 +632,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="138.42578125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.84375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="86.3125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1099580</v>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1099580</v>
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1099580</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1099580</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1099580</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1099580</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1099580</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1099580</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1099580</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1099580</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1099580</v>
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/EdisonLogs/operaSoccer.xlsx
+++ b/EdisonLogs/operaSoccer.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="jsoned" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,17 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
   <si>
     <t>NewsHeadline</t>
   </si>
   <si>
-    <t>Coronavirus: Players want at least four weeks of training before return – AIC</t>
-  </si>
-  <si>
-    <t>Coronavirus: Nationals to receive World Series rings in virtual ceremony</t>
-  </si>
-  <si>
     <t>newsId</t>
   </si>
   <si>
@@ -66,12 +60,6 @@
     <t>1099592</t>
   </si>
   <si>
-    <t>Rumour Has It: PSG want Real Madrid target Haaland, Barcelona consider options</t>
-  </si>
-  <si>
-    <t>1099593</t>
-  </si>
-  <si>
     <t>Ronaldo goes to the next level in the Champions League – Chiellini</t>
   </si>
   <si>
@@ -286,13 +274,48 @@
   </si>
   <si>
     <t>1099116</t>
+  </si>
+  <si>
+    <t>Coronavirus: Premier League ´confident as we can be´ but season could still be abandoned</t>
+  </si>
+  <si>
+    <t>1099740</t>
+  </si>
+  <si>
+    <t>Coronavirus: Russell Westbrook donates meals to healthcare workers</t>
+  </si>
+  <si>
+    <t>1099739</t>
+  </si>
+  <si>
+    <t>Woakes would welcome ditched Alex Hales back into England dressing room</t>
+  </si>
+  <si>
+    <t>1099738</t>
+  </si>
+  <si>
+    <t>Naomi Osaka surpasses Serena Williams as highest-earning female athlete</t>
+  </si>
+  <si>
+    <t>1099737</t>
+  </si>
+  <si>
+    <t>Jesse Lingard on Alan Pardew´s FA Cup jig: Sometimes people dance too early!</t>
+  </si>
+  <si>
+    <t>1099736</t>
+  </si>
+  <si>
+    <t>Neuer dreaming of captaining Bayern in home Champions League final again</t>
+  </si>
+  <si>
+    <t>1099735</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -302,7 +325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +335,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,9 +357,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,382 +662,385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.84375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="86.3125" collapsed="true"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="86.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>45</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>47</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>51</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>55</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>57</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>59</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>61</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>63</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>65</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>67</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>69</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>71</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>73</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>75</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>77</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>79</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>81</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>83</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>85</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1017,12 +1050,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="81.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/EdisonLogs/operaSoccer.xlsx
+++ b/EdisonLogs/operaSoccer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="200">
   <si>
     <t>NewsHeadline</t>
   </si>
@@ -310,12 +310,319 @@
   </si>
   <si>
     <t>1099735</t>
+  </si>
+  <si>
+    <t>Jerry Sloan: ´The Original Bull´ produced iconic Jazz team to take on Michael Jordan</t>
+  </si>
+  <si>
+    <t>1099734</t>
+  </si>
+  <si>
+    <t>This is more than I deserve – Aduriz thanks Athletic Bilbao for ´unforgettable´ career</t>
+  </si>
+  <si>
+    <t>1099733</t>
+  </si>
+  <si>
+    <t>Coronavirus: Liga MX Clausura season cancelled with no champions crowned</t>
+  </si>
+  <si>
+    <t>1099732</t>
+  </si>
+  <si>
+    <t>Tom Brady: QB does not want to ´be the almighty´ with Buccaneers</t>
+  </si>
+  <si>
+    <t>1099731</t>
+  </si>
+  <si>
+    <t>We were busy so used a doppelganger! - Stam laughs off Cincinnati photo blunder</t>
+  </si>
+  <si>
+    <t>1099730</t>
+  </si>
+  <si>
+    <t>Former Inter coach Gigi Simoni dies aged 81</t>
+  </si>
+  <si>
+    <t>1099729</t>
+  </si>
+  <si>
+    <t>Legendary Utah Jazz coach Jerry Sloan dies aged 78</t>
+  </si>
+  <si>
+    <t>1099728</t>
+  </si>
+  <si>
+    <t>Ancelotti prefers Premier League to Serie A, wants Everton ´at the top´ soon</t>
+  </si>
+  <si>
+    <t>1099727</t>
+  </si>
+  <si>
+    <t>Evander Holyfield assisted by Wladimir Klitschko in training for heavyweight comeback</t>
+  </si>
+  <si>
+    <t>1099726</t>
+  </si>
+  <si>
+    <t>Aston Villa were ´robbed´ in Man Utd final, says former boss O´Neill</t>
+  </si>
+  <si>
+    <t>1099725</t>
+  </si>
+  <si>
+    <t>Coronavirus: Woakes welcomes aches and pains as he targets England action</t>
+  </si>
+  <si>
+    <t>1099724</t>
+  </si>
+  <si>
+    <t>Flick reveals Thiago injury concern four days before Der Klassiker</t>
+  </si>
+  <si>
+    <t>1099723</t>
+  </si>
+  <si>
+    <t>Volland close to comeback in boost to Leverkusen´s Champions League push</t>
+  </si>
+  <si>
+    <t>1099722</t>
+  </si>
+  <si>
+    <t>Sneijder was amazing – Mourinho can´t explain Ballon d´Or snub of Inter treble winners</t>
+  </si>
+  <si>
+    <t>1099721</t>
+  </si>
+  <si>
+    <t>NHL, players considering 24-team conference-based playoff format</t>
+  </si>
+  <si>
+    <t>1099720</t>
+  </si>
+  <si>
+    <t>Pohang Steelers 1-2 Seoul: Osmar winner completes turnaround</t>
+  </si>
+  <si>
+    <t>1099719</t>
+  </si>
+  <si>
+    <t>Flick: Lucas Hernandez will have to bide his time</t>
+  </si>
+  <si>
+    <t>1099718</t>
+  </si>
+  <si>
+    <t>Coronavirus: Leeds chief predicts ´national embarrassment´ if English season is abandoned</t>
+  </si>
+  <si>
+    <t>1099717</t>
+  </si>
+  <si>
+    <t>Bayern the ´benchmark´ but Frankfurt looking to kick-start season as Hutter denies ´crisis´ talk</t>
+  </si>
+  <si>
+    <t>1099716</t>
+  </si>
+  <si>
+    <t>Grealish has the talent for Man Utd or any big club, says former Villa boss O´Neill</t>
+  </si>
+  <si>
+    <t>1099715</t>
+  </si>
+  <si>
+    <t>Laver leads tributes to Ashley Cooper after Australian great dies at 83</t>
+  </si>
+  <si>
+    <t>1099714</t>
+  </si>
+  <si>
+    <t>´He knows what players need´ - Shaw raves about United boss Solskjaer</t>
+  </si>
+  <si>
+    <t>1099713</t>
+  </si>
+  <si>
+    <t>Mourinho: Real Madrid desire stopped me travelling back with Inter</t>
+  </si>
+  <si>
+    <t>1099712</t>
+  </si>
+  <si>
+    <t>Favre admits Gotze does not suit Dortmund system as Brandt earns huge praise</t>
+  </si>
+  <si>
+    <t>1099711</t>
+  </si>
+  <si>
+    <t>Mike´s still got it! US heavyweight Johnson marvels at Tyson</t>
+  </si>
+  <si>
+    <t>1099710</t>
+  </si>
+  <si>
+    <t>Six Nations and SANZAAR discussing new rugby calendar</t>
+  </si>
+  <si>
+    <t>1099709</t>
+  </si>
+  <si>
+    <t>Ancelotti: Zidane changed my idea about football</t>
+  </si>
+  <si>
+    <t>1099708</t>
+  </si>
+  <si>
+    <t>Favre not giving up on Reus despite reports he´ll miss rest of season</t>
+  </si>
+  <si>
+    <t>1099707</t>
+  </si>
+  <si>
+    <t>Yaya Toure appears in campaign ad as Vasco da Gama presidential candidate promises Ivorian´s arrival</t>
+  </si>
+  <si>
+    <t>1099706</t>
+  </si>
+  <si>
+    <t>Coronavirus: Four new positive tests take Liga MX side Santos Laguna to 12</t>
+  </si>
+  <si>
+    <t>1099705</t>
+  </si>
+  <si>
+    <t>This is what we breathe! Joshua backs ´ultimate motivation´ Tyson in comeback bid</t>
+  </si>
+  <si>
+    <t>1099704</t>
+  </si>
+  <si>
+    <t>Remembering Inter´s treble - Were the Nerazzurri better than Mourinho´s Chelsea and Madrid?</t>
+  </si>
+  <si>
+    <t>1099703</t>
+  </si>
+  <si>
+    <t>Anthony Joshua: Tyson Fury is just another opponent</t>
+  </si>
+  <si>
+    <t>1099702</t>
+  </si>
+  <si>
+    <t>Novak Djokovic at 33: A birthday celebration of the world number one´s greatest grand slam epics</t>
+  </si>
+  <si>
+    <t>1099701</t>
+  </si>
+  <si>
+    <t>Next Generation – The latest ´new Kaka´, Real-Madrid linked Igor Gomes is ´a great raw material´</t>
+  </si>
+  <si>
+    <t>1099700</t>
+  </si>
+  <si>
+    <t>Haaland chasing goalscoring record - the Bundesliga in Opta Facts</t>
+  </si>
+  <si>
+    <t>1099699</t>
+  </si>
+  <si>
+    <t>On this day in sport: Mourinho´s Inter complete treble, Rugby World Cup debuts</t>
+  </si>
+  <si>
+    <t>1099698</t>
+  </si>
+  <si>
+    <t>Rumour Has It: Ter Stegen set to sign new Barca deal, Madrid and Inter ask about Aguero</t>
+  </si>
+  <si>
+    <t>1099697</t>
+  </si>
+  <si>
+    <t>Achraf Hakimi´s agent denies Inter offer, Dortmund loanee to make Madrid return</t>
+  </si>
+  <si>
+    <t>1099696</t>
+  </si>
+  <si>
+    <t>Chiefs CEO says Mahomes extension talks will begin this summer</t>
+  </si>
+  <si>
+    <t>1099695</t>
+  </si>
+  <si>
+    <t>Coronavirus: Health authorities key in return, says Tebas amid June 12 speculation</t>
+  </si>
+  <si>
+    <t>1099694</t>
+  </si>
+  <si>
+    <t>Kraft´s Super Bowl LI ring sells for $1.025m</t>
+  </si>
+  <si>
+    <t>1099693</t>
+  </si>
+  <si>
+    <t>Zaniolo can develop into ´extraordinary player´, says Mancini</t>
+  </si>
+  <si>
+    <t>1099692</t>
+  </si>
+  <si>
+    <t>Watkins joins Toronto Wolfpack on three-year deal</t>
+  </si>
+  <si>
+    <t>1099691</t>
+  </si>
+  <si>
+    <t>´The future depends on what you do today´ – Pjanic in cryptic message amid Barca links</t>
+  </si>
+  <si>
+    <t>1099690</t>
+  </si>
+  <si>
+    <t>Coronavirus: NRL should never have shut down – V´landys</t>
+  </si>
+  <si>
+    <t>1099689</t>
+  </si>
+  <si>
+    <t>Man City star Silva wary of Real Madrid in Champions League</t>
+  </si>
+  <si>
+    <t>1099688</t>
+  </si>
+  <si>
+    <t>Giannis wants to smoke a cigar like Jordan and celebrate Bucks´ NBA title in Mykonos</t>
+  </si>
+  <si>
+    <t>1099687</t>
+  </si>
+  <si>
+    <t>Madrid target Haaland can prosper in LaLiga – Rivaldo</t>
+  </si>
+  <si>
+    <t>1099686</t>
+  </si>
+  <si>
+    <t>It´s better to start at Inter than be on Barcelona bench – Capello warns Martinez</t>
+  </si>
+  <si>
+    <t>1099685</t>
+  </si>
+  <si>
+    <t>He is one of the best ever – Khedira hails extraordinary Ronaldo</t>
+  </si>
+  <si>
+    <t>1099684</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -662,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -670,9 +977,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="86.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="86.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1050,7 +1357,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -1058,9 +1365,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="81.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.84375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="92.64453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1118,6 +1425,414 @@
       </c>
       <c r="B7" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>193</v>
+      </c>
+      <c r="B55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>195</v>
+      </c>
+      <c r="B56" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>199</v>
+      </c>
+      <c r="B58" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
